--- a/results/hash-password-sync-11salt.xlsx
+++ b/results/hash-password-sync-11salt.xlsx
@@ -36,7 +36,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="nan-hash-password-sync" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/nicoladelgobbo/Documents/GitHub/bcrypt-perf/results/nan-hash-password-sync.csv" decimal="," thousands="." comma="1">
+    <textPr fileType="mac" sourceFile="/Users/nicoladelgobbo/Documents/GitHub/bcrypt-perf/results/nan-hash-password-sync.csv" decimal="," thousands="." comma="1">
       <textFields count="4">
         <textField/>
         <textField/>
@@ -46,7 +46,7 @@
     </textPr>
   </connection>
   <connection id="2" name="nan-hash-password-sync1" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/nicoladelgobbo/Documents/GitHub/bcrypt-perf/results/nan-hash-password-sync.csv" decimal="," thousands="." comma="1">
+    <textPr fileType="mac" sourceFile="/Users/nicoladelgobbo/Documents/GitHub/bcrypt-perf/results/nan-hash-password-sync.csv" decimal="," thousands="." comma="1">
       <textFields count="4">
         <textField/>
         <textField/>
@@ -56,7 +56,7 @@
     </textPr>
   </connection>
   <connection id="3" name="napi-hash-password-sync" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/nicoladelgobbo/Documents/GitHub/bcrypt-perf/results/napi-hash-password-sync.csv" decimal="," thousands="." comma="1">
+    <textPr fileType="mac" sourceFile="/Users/nicoladelgobbo/Documents/GitHub/bcrypt-perf/results/napi-hash-password-sync.csv" decimal="," thousands="." comma="1">
       <textFields count="4">
         <textField/>
         <textField/>
@@ -28554,7 +28554,7 @@
   <dimension ref="A1:E1002"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A979" workbookViewId="0">
-      <selection activeCell="D1002" sqref="D1002:E1002"/>
+      <selection activeCell="H1012" sqref="H1012"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
